--- a/biology/Botanique/Astrakan_rouge/Astrakan_rouge.xlsx
+++ b/biology/Botanique/Astrakan_rouge/Astrakan_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'astrakan rouge (parfois orthographié astracan) est une variété de pommier domestique, originaire d'Astrakhan (avec un h), créée en Russie vers 1780.
 </t>
@@ -511,7 +523,9 @@
           <t>Le fruit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette pomme précoce (début juillet à début août) de taille moyenne est très parfumée. Elle offre la particularité de très bien résister au froid et à l'altitude.
 Sa peau à fond jaune lavée de rouge est assez épaisse et semée de nombreux points gris très développés.
@@ -545,9 +559,11 @@
           <t>L'arbre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre au port érigé (type I) est peu vigoureux mais très fertile. L'idéal est de le greffer sur franc[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre au port érigé (type I) est peu vigoureux mais très fertile. L'idéal est de le greffer sur franc.
 Ses rameaux sont bruns, duveteux et érigés de couleur vert-grisâtre à brun.
 Les feuilles sont fortement dentées.
 Sa floraison est très précoce.
